--- a/biology/Zoologie/René_Haas/René_Haas.xlsx
+++ b/biology/Zoologie/René_Haas/René_Haas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Haas</t>
+          <t>René_Haas</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-René Haas, (René Robert) (Paris 10e, 28 avril 1881[1] - Paris 17e, 1er juin 1940[2]) est un militaire français. Pendant la Première Guerre mondiale, il participe à la mise sur pied les Sections d'équipages canins d'Alaska (SECA) sur le front des Vosges.
+René Haas, (René Robert) (Paris 10e, 28 avril 1881 - Paris 17e, 1er juin 1940) est un militaire français. Pendant la Première Guerre mondiale, il participe à la mise sur pied les Sections d'équipages canins d'Alaska (SECA) sur le front des Vosges.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Haas</t>
+          <t>René_Haas</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,27 +526,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Début de carrière
-René Haas est né à Paris le 28 avril 1881. Il est célibataire. Il est bachelier et possède un diplôme d'ingénieur. Il parle couramment quatre langues. C'est un militaire au 119e régiment d'infanterie territoriale.
-Il travaille à Nome en Alaska et gère une exploitation minière pour le compte de Louis Moufflet[3].
+          <t>Début de carrière</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">René Haas est né à Paris le 28 avril 1881. Il est célibataire. Il est bachelier et possède un diplôme d'ingénieur. Il parle couramment quatre langues. C'est un militaire au 119e régiment d'infanterie territoriale.
+Il travaille à Nome en Alaska et gère une exploitation minière pour le compte de Louis Moufflet.
 Au déclenchement de la Première Guerre mondiale, en septembre 1914, il revient en France.
-Genèse des SECA
-Pendant l'hiver 1914, les ravitaillements sur le front des Vosges sont considérablement perturbés par la neige. Les chevaux et les mulets ne sont pas adaptés pour des transports dans ces conditions. Le capitaine Moufflet, ayant séjourné au Canada, imagine une section de chiens de traîneau pour pallier ce problème.
-Le capitaine Moufflet et le lieutenant Haas déploieront avec succès à partir de décembre 1915 des équipages de chiens de traîneau sur le front des Vosges en soutien logistique et approvisionnement des postes avancés[4],[5].
-En septembre 1915, le Général Maud'huy commandant la 7e armée approuve le projet.
-Officialisée le 7 août 1915 par Alexandre Millerand, alors Ministre de la guerre, une mission, classée « secret » et « très urgent », est confiée à Louis Moufflet : acheter 400 chiens et le matériel nécessaires aux SECA, en Amérique.
-Dès réception de l'ordre officiel, le lieutenant Haas envoie un message à Scotty Allan, son ami.
-Mission en Amérique
-Le capitaine Moufflet se charge de la recherche des chiens de meute dans la région de Québec. Le lieutenant Haas est chargé de trouver les chiens de tête en Alaska. Aidé par Allan Alexander Allan dit Scotty Allan, musher qu'il a connu lors de son séjour de chercheur d'or en Alaska, il rassemble 104 chiens et deux tonnes de saumon séché. Quittant l'Alaska, territoire américain alors pays neutre et pour partie germanophile, le convoi traverse le Canada en train et arrive à Montréal où ils retrouvent le capitaine Moufflet, qui a quant à lui réuni 336 chiens d'attelage. La meute est constituée et regroupe 440 chiens.
-Ils quittent Montréal le 21 novembre 1915 à cinq heures du matin, embarquant à bord du dernier bateau quittant l'estuaire du Saint-Laurent avant qu'il ne soit pris par les glaces de l'hiver, le Pomeranian, affrété par la compagnie Allan Line. La traversée se déroule dans les tempêtes des hauts latitudes pour éviter les attaques des sous-marins allemands. Quatre chiens sont morts écrasés durant les tempêtes.
-Arrivée en France
-Le vaisseau arrive au Havre le 5 décembre 1915, avec ses 436 chiens, 70 traîneaux et de 440 harnachements. Ils sont acheminés vers les Vosges[3],[5],[6],[7],[8],[9].
-Deux Sections d'équipages de chiens d'Alaska (dites SECA) sont créées :
-première section : commandée par le lieutenant Haas et installée au Tanet assure le soutien des 151e et 127e divisions d'infanterie ;
-deuxième section : commandée par le lieutenant Hérodier et installée au Breitfirst soutien des 52e, 96e et 13e divisions d'infanterie[10].
-Missions des SECA
-Les sections ont effectué des missions de ravitaillement, d'appuis logistiques mais aussi d'évacuations des blessés. Ils seront des auxiliaires irremplaçables sur le front vosgien jusqu’à la fin de la Première Guerre mondiale.
-Le 1er avril 1918, les équipages canins furent rattachés à la 50e compagnie du 19e escadron du train des équipages militaires[4].
 </t>
         </is>
       </c>
@@ -545,7 +545,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ren%C3%A9_Haas</t>
+          <t>René_Haas</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -560,10 +560,168 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Genèse des SECA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant l'hiver 1914, les ravitaillements sur le front des Vosges sont considérablement perturbés par la neige. Les chevaux et les mulets ne sont pas adaptés pour des transports dans ces conditions. Le capitaine Moufflet, ayant séjourné au Canada, imagine une section de chiens de traîneau pour pallier ce problème.
+Le capitaine Moufflet et le lieutenant Haas déploieront avec succès à partir de décembre 1915 des équipages de chiens de traîneau sur le front des Vosges en soutien logistique et approvisionnement des postes avancés,.
+En septembre 1915, le Général Maud'huy commandant la 7e armée approuve le projet.
+Officialisée le 7 août 1915 par Alexandre Millerand, alors Ministre de la guerre, une mission, classée « secret » et « très urgent », est confiée à Louis Moufflet : acheter 400 chiens et le matériel nécessaires aux SECA, en Amérique.
+Dès réception de l'ordre officiel, le lieutenant Haas envoie un message à Scotty Allan, son ami.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>René_Haas</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Haas</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mission en Amérique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le capitaine Moufflet se charge de la recherche des chiens de meute dans la région de Québec. Le lieutenant Haas est chargé de trouver les chiens de tête en Alaska. Aidé par Allan Alexander Allan dit Scotty Allan, musher qu'il a connu lors de son séjour de chercheur d'or en Alaska, il rassemble 104 chiens et deux tonnes de saumon séché. Quittant l'Alaska, territoire américain alors pays neutre et pour partie germanophile, le convoi traverse le Canada en train et arrive à Montréal où ils retrouvent le capitaine Moufflet, qui a quant à lui réuni 336 chiens d'attelage. La meute est constituée et regroupe 440 chiens.
+Ils quittent Montréal le 21 novembre 1915 à cinq heures du matin, embarquant à bord du dernier bateau quittant l'estuaire du Saint-Laurent avant qu'il ne soit pris par les glaces de l'hiver, le Pomeranian, affrété par la compagnie Allan Line. La traversée se déroule dans les tempêtes des hauts latitudes pour éviter les attaques des sous-marins allemands. Quatre chiens sont morts écrasés durant les tempêtes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>René_Haas</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Haas</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Arrivée en France</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le vaisseau arrive au Havre le 5 décembre 1915, avec ses 436 chiens, 70 traîneaux et de 440 harnachements. Ils sont acheminés vers les Vosges.
+Deux Sections d'équipages de chiens d'Alaska (dites SECA) sont créées :
+première section : commandée par le lieutenant Haas et installée au Tanet assure le soutien des 151e et 127e divisions d'infanterie ;
+deuxième section : commandée par le lieutenant Hérodier et installée au Breitfirst soutien des 52e, 96e et 13e divisions d'infanterie.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>René_Haas</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Haas</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Missions des SECA</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sections ont effectué des missions de ravitaillement, d'appuis logistiques mais aussi d'évacuations des blessés. Ils seront des auxiliaires irremplaçables sur le front vosgien jusqu’à la fin de la Première Guerre mondiale.
+Le 1er avril 1918, les équipages canins furent rattachés à la 50e compagnie du 19e escadron du train des équipages militaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>René_Haas</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Ren%C3%A9_Haas</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Citation à l'ordre du régiment.
 </t>
